--- a/doc/ue_gamestate.xlsx
+++ b/doc/ue_gamestate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBCC6F8-7ED6-4F61-9739-A71FA4BD7948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DB13D3-0276-4153-BE37-3D97C6F0FDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="55">
   <si>
     <t>游戏State类，可以存储一些游戏级别相关的状态，例如状态信息等等</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,88 @@
   </si>
   <si>
     <t>DS下回同步给各个Client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换场景时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Initialize gameplay for the level.</t>
+  </si>
+  <si>
+    <t>FRegisterComponentContext Context(WorldContext.World());</t>
+  </si>
+  <si>
+    <t>Context.Process();</t>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;SetGameMode(URL);</t>
+  </si>
+  <si>
+    <t>设置GameMode（纯Client模式下无效，没有GameMode ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化Actors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化Level的Actors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化所有Actors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">初始化Level里面的所有Actors </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameMode的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorld* World = GetWorld();</t>
+  </si>
+  <si>
+    <t>if (GameState)</t>
+  </si>
+  <si>
+    <t>创建并初始化GameState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！创建并初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过DS的消息包创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">没有GameMode，所以不会通过gameMode来创建 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！设置到World的变量里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将新创建的GameState绑定到World变量里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,6 +319,192 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A19D840-E757-5C28-724F-043D7C451ADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="771526"/>
+          <a:ext cx="9201150" cy="4690176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>455334</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>94368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B228B12F-B785-8503-7254-D9C37138DF19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676525" y="6429375"/>
+          <a:ext cx="14923809" cy="7057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC387BF-5997-4C96-BE7D-005A4B3F9BCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="771526"/>
+          <a:ext cx="9201150" cy="4690176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>455334</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>94368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00C2919-3F88-460B-B735-B16AC9212C99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676525" y="6429375"/>
+          <a:ext cx="14923809" cy="7057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -911,12 +1179,244 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6CFB86-7AE1-406A-BD4B-08E384851E3D}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:N47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -924,27 +1424,286 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD8172D-1310-4D3A-B0F9-190F90A9155F}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F01041-7A0D-42A0-A247-B487F9C258EF}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:N47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -952,12 +1711,244 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A16BA2-B93F-44BB-8A91-77A8452E8BFB}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:N47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -965,27 +1956,286 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F412F20-519E-424F-8189-A710E2B7547D}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18CD9F4-407F-44D5-A4C2-BE146F7EC644}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:N47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
